--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1055.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1055.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.907175994891027</v>
+        <v>1.154484868049622</v>
       </c>
       <c r="B1">
-        <v>2.388341020578499</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.77998859922236</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.666654343311105</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.550580906000001</v>
+        <v>1.081335306167603</v>
       </c>
     </row>
   </sheetData>
